--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/ResNet results/ResNet_cc34.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/ResNet results/ResNet_cc34.xlsx
@@ -242,9 +242,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,6 +249,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -553,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,23 +774,23 @@
         <v>1</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="X2:X37" si="0">IF(C2=0, 1, 0)+IF(E2=0, 1, 0)+IF(G2=0, 1, 0)+IF(I2=0, 1, 0)+IF(K2=0, 1, 0)+IF(M2=0, 1, 0)+IF(O2=0, 1, 0)+IF(Q2=0, 1, 0)+IF(S2=0, 1, 0)+IF(U2=0, 1, 0)</f>
+        <f t="shared" ref="X2:X8" si="0">IF(C2=0, 1, 0)+IF(E2=0, 1, 0)+IF(G2=0, 1, 0)+IF(I2=0, 1, 0)+IF(K2=0, 1, 0)+IF(M2=0, 1, 0)+IF(O2=0, 1, 0)+IF(Q2=0, 1, 0)+IF(S2=0, 1, 0)+IF(U2=0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:Y37" si="1">IF(C2=1, 1, 0)+IF(E2=1, 1, 0)+IF(G2=1, 1, 0)+IF(I2=1, 1, 0)+IF(K2=1, 1, 0)+IF(M2=1, 1, 0)+IF(O2=1, 1, 0)+IF(Q2=1, 1, 0)+IF(S2=1, 1, 0)+IF(U2=1, 1, 0)</f>
+        <f t="shared" ref="Y2:Y8" si="1">IF(C2=1, 1, 0)+IF(E2=1, 1, 0)+IF(G2=1, 1, 0)+IF(I2=1, 1, 0)+IF(K2=1, 1, 0)+IF(M2=1, 1, 0)+IF(O2=1, 1, 0)+IF(Q2=1, 1, 0)+IF(S2=1, 1, 0)+IF(U2=1, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Z2">
-        <f t="shared" ref="Z2:Z37" si="2">IF(C2=2, 1, 0)+IF(E2=2, 1, 0)+IF(G2=2, 1, 0)+IF(I2=2, 1, 0)+IF(K2=2, 1, 0)+IF(M2=2, 1, 0)+IF(O2=2, 1, 0)+IF(Q2=2, 1, 0)+IF(S2=2, 1, 0)+IF(U2=2, 1, 0)</f>
+        <f t="shared" ref="Z2:Z8" si="2">IF(C2=2, 1, 0)+IF(E2=2, 1, 0)+IF(G2=2, 1, 0)+IF(I2=2, 1, 0)+IF(K2=2, 1, 0)+IF(M2=2, 1, 0)+IF(O2=2, 1, 0)+IF(Q2=2, 1, 0)+IF(S2=2, 1, 0)+IF(U2=2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AA37" si="3">IF(C2=3, 1, 0)+IF(E2=3, 1, 0)+IF(G2=3, 1, 0)+IF(I2=3, 1, 0)+IF(K2=3, 1, 0)+IF(M2=3, 1, 0)+IF(O2=3, 1, 0)+IF(Q2=3, 1, 0)+IF(S2=3, 1, 0)+IF(U2=3, 1, 0)</f>
+        <f t="shared" ref="AA2:AA8" si="3">IF(C2=3, 1, 0)+IF(E2=3, 1, 0)+IF(G2=3, 1, 0)+IF(I2=3, 1, 0)+IF(K2=3, 1, 0)+IF(M2=3, 1, 0)+IF(O2=3, 1, 0)+IF(Q2=3, 1, 0)+IF(S2=3, 1, 0)+IF(U2=3, 1, 0)</f>
         <v>10</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AB37" si="4">IF(C2=4, 1, 0)+IF(E2=4, 1, 0)+IF(G2=4, 1, 0)+IF(I2=4, 1, 0)+IF(K2=4, 1, 0)+IF(M2=4, 1, 0)+IF(O2=4, 1, 0)+IF(Q2=4, 1, 0)+IF(S2=4, 1, 0)+IF(U2=4, 1, 0)</f>
+        <f t="shared" ref="AB2:AB8" si="4">IF(C2=4, 1, 0)+IF(E2=4, 1, 0)+IF(G2=4, 1, 0)+IF(I2=4, 1, 0)+IF(K2=4, 1, 0)+IF(M2=4, 1, 0)+IF(O2=4, 1, 0)+IF(Q2=4, 1, 0)+IF(S2=4, 1, 0)+IF(U2=4, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AC2" t="b">
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="b">
-        <f t="shared" ref="AD2:AG17" si="5">Y2=MAX($X2:$AB2)</f>
+        <f t="shared" ref="AD2:AG8" si="5">Y2=MAX($X2:$AB2)</f>
         <v>0</v>
       </c>
       <c r="AE2" t="b">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="b">
-        <f t="shared" ref="AC3:AG37" si="6">X3=MAX($X3:$AB3)</f>
+        <f t="shared" ref="AC3:AC8" si="6">X3=MAX($X3:$AB3)</f>
         <v>0</v>
       </c>
       <c r="AD3" t="b">
@@ -940,15 +940,15 @@
         <v>0</v>
       </c>
       <c r="AH3" s="4">
-        <f t="shared" ref="AH3:AH37" si="7">IF(X3=MAX($X3:$AB3), 1, 0) + IF(Y3=MAX($X3:$AB3), 1, 0) + IF(Z3=MAX($X3:$AB3), 1, 0) + IF(AA3=MAX($X3:$AB3), 1, 0) + IF(AB3=MAX($X3:$AB3), 1, 0)</f>
+        <f t="shared" ref="AH3:AH8" si="7">IF(X3=MAX($X3:$AB3), 1, 0) + IF(Y3=MAX($X3:$AB3), 1, 0) + IF(Z3=MAX($X3:$AB3), 1, 0) + IF(AA3=MAX($X3:$AB3), 1, 0) + IF(AB3=MAX($X3:$AB3), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="AI3" s="4">
-        <f t="shared" ref="AI3:AI30" si="8">IF(AH3 = 1, _xlfn.MODE.SNGL(C3,E3,G3,I3,K3,M3,O3,Q3,S3,U3), "Verificar Manualmente")</f>
+        <f t="shared" ref="AI3:AI8" si="8">IF(AH3 = 1, _xlfn.MODE.SNGL(C3,E3,G3,I3,K3,M3,O3,Q3,S3,U3), "Verificar Manualmente")</f>
         <v>3</v>
       </c>
       <c r="AJ3" s="4">
-        <f t="shared" ref="AJ3:AJ30" si="9">IF(AH3 = 1, VLOOKUP(AI3, $AL$2:$AM$6, 2, FALSE), "Verificar Manualmente")</f>
+        <f t="shared" ref="AJ3:AJ8" si="9">IF(AH3 = 1, VLOOKUP(AI3, $AL$2:$AM$6, 2, FALSE), "Verificar Manualmente")</f>
         <v>1</v>
       </c>
       <c r="AL3" s="5">
@@ -1580,23 +1580,23 @@
       <c r="AH9" s="4"/>
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1611,8 +1611,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -1624,11 +1624,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="10">COUNTIFS(AJ:AJ, AL12)</f>
+        <f t="shared" ref="AM12:AM38" si="10">COUNTIFS(AJ:AJ, AL12)</f>
         <v>7</v>
       </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="11">AM12/(SUM(AM$11:AM$37))</f>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="11">AM12/(SUM(AM$11:AM$38))</f>
         <v>1</v>
       </c>
     </row>
@@ -1643,7 +1643,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1659,7 +1659,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1675,7 +1675,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1691,7 +1691,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1707,7 +1707,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1723,7 +1723,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1739,7 +1739,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1755,7 +1755,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1771,7 +1771,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1787,7 +1787,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1803,7 +1803,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1819,7 +1819,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1835,7 +1835,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1851,7 +1851,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1867,7 +1867,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1883,7 +1883,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1899,7 +1899,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1915,7 +1915,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1931,7 +1931,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1947,7 +1947,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1956,14 +1956,14 @@
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN33" s="8">
+      <c r="AM33" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN33" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1972,14 +1972,14 @@
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="8">
+      <c r="AM34" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -1988,14 +1988,14 @@
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN35" s="8">
+      <c r="AM35" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2004,14 +2004,14 @@
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN36" s="8">
+      <c r="AM36" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN36" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2020,14 +2020,27 @@
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AN37" s="8">
+      <c r="AM37" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN37" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="34:40" x14ac:dyDescent="0.25">
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
